--- a/data/pca/factorExposure/factorExposure_2018-05-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01778040111429136</v>
+        <v>-0.01956656411210024</v>
       </c>
       <c r="C2">
-        <v>-0.03748138972690365</v>
+        <v>0.01659863922294769</v>
       </c>
       <c r="D2">
-        <v>0.01752748669817513</v>
+        <v>-0.02829303804833832</v>
       </c>
       <c r="E2">
-        <v>-0.003716184035523921</v>
+        <v>0.01874183188874286</v>
       </c>
       <c r="F2">
-        <v>-0.1247213778060576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.005523238512788449</v>
+      </c>
+      <c r="G2">
+        <v>-0.04624027006092953</v>
+      </c>
+      <c r="H2">
+        <v>0.05040137869789713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08916596658050419</v>
+        <v>-0.07660065330225348</v>
       </c>
       <c r="C3">
-        <v>-0.02090743468474107</v>
+        <v>-0.01566409255028753</v>
       </c>
       <c r="D3">
-        <v>0.08988120669054449</v>
+        <v>-0.06834574018360706</v>
       </c>
       <c r="E3">
-        <v>-0.07954865163097058</v>
+        <v>0.01057574029289359</v>
       </c>
       <c r="F3">
-        <v>-0.409384493336158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01642451343469126</v>
+      </c>
+      <c r="G3">
+        <v>-0.1757460129065062</v>
+      </c>
+      <c r="H3">
+        <v>0.1598304530179267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04692048757008617</v>
+        <v>-0.04413605592753751</v>
       </c>
       <c r="C4">
-        <v>-0.003721881935918737</v>
+        <v>0.001091948015463537</v>
       </c>
       <c r="D4">
-        <v>0.005198980614982457</v>
+        <v>-0.06041921011447128</v>
       </c>
       <c r="E4">
-        <v>0.05536999091639172</v>
+        <v>-0.0176238601147081</v>
       </c>
       <c r="F4">
-        <v>-0.08655160768200469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04478866572201695</v>
+      </c>
+      <c r="G4">
+        <v>-0.04136360405148285</v>
+      </c>
+      <c r="H4">
+        <v>0.05933671338225513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03596882072727194</v>
+        <v>-0.02538736336717375</v>
       </c>
       <c r="C6">
-        <v>-0.0107023291834916</v>
+        <v>-0.001909201297282603</v>
       </c>
       <c r="D6">
-        <v>0.006945568365644752</v>
+        <v>-0.06153195072128593</v>
       </c>
       <c r="E6">
-        <v>0.02782049533852716</v>
+        <v>-0.003873873737378108</v>
       </c>
       <c r="F6">
-        <v>-0.01427014784083777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03045391281720498</v>
+      </c>
+      <c r="G6">
+        <v>-0.009841991897806688</v>
+      </c>
+      <c r="H6">
+        <v>0.06387998733478656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01967604356903884</v>
+        <v>-0.02013486221613535</v>
       </c>
       <c r="C7">
-        <v>0.001472476524245633</v>
+        <v>0.000838949908428146</v>
       </c>
       <c r="D7">
-        <v>0.01975452329454265</v>
+        <v>-0.03191488644315934</v>
       </c>
       <c r="E7">
-        <v>0.03076297833198621</v>
+        <v>-0.04187149823492006</v>
       </c>
       <c r="F7">
-        <v>-0.0574322018695185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.002803436332304474</v>
+      </c>
+      <c r="G7">
+        <v>-0.0269435004206055</v>
+      </c>
+      <c r="H7">
+        <v>0.04408964151075035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01755627329310452</v>
+        <v>-0.004940401065926601</v>
       </c>
       <c r="C8">
-        <v>-0.01055631810546789</v>
+        <v>-0.002438740932493602</v>
       </c>
       <c r="D8">
-        <v>0.01700249902600364</v>
+        <v>-0.01400406855064664</v>
       </c>
       <c r="E8">
-        <v>0.04070089936530014</v>
+        <v>-0.004862357067567306</v>
       </c>
       <c r="F8">
-        <v>-0.1019387610755762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0185366003137517</v>
+      </c>
+      <c r="G8">
+        <v>-0.04215142650981734</v>
+      </c>
+      <c r="H8">
+        <v>0.04548977807407126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03624730506088892</v>
+        <v>-0.03473815939818867</v>
       </c>
       <c r="C9">
-        <v>-0.007965891963409959</v>
+        <v>-0.001481308788687503</v>
       </c>
       <c r="D9">
-        <v>0.01219563843540141</v>
+        <v>-0.04398776625152574</v>
       </c>
       <c r="E9">
-        <v>0.041058109005961</v>
+        <v>-0.007825326278971062</v>
       </c>
       <c r="F9">
-        <v>-0.1009922896586622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02103224219445176</v>
+      </c>
+      <c r="G9">
+        <v>-0.04676142220730171</v>
+      </c>
+      <c r="H9">
+        <v>0.05823766938042927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0360894868953948</v>
+        <v>-0.1129484606141032</v>
       </c>
       <c r="C10">
-        <v>0.05944239586984532</v>
+        <v>0.000796388101310133</v>
       </c>
       <c r="D10">
-        <v>-0.07209155704859072</v>
+        <v>0.1633932518540221</v>
       </c>
       <c r="E10">
-        <v>-0.1285589354763398</v>
+        <v>-0.0002705741889426847</v>
       </c>
       <c r="F10">
-        <v>-0.06000288024415396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03510718601995837</v>
+      </c>
+      <c r="G10">
+        <v>-0.03326061081479661</v>
+      </c>
+      <c r="H10">
+        <v>0.004389148162910886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03284606312872818</v>
+        <v>-0.02077100147533774</v>
       </c>
       <c r="C11">
-        <v>-0.02478155510907417</v>
+        <v>-0.0128068791797986</v>
       </c>
       <c r="D11">
-        <v>0.01680917944782022</v>
+        <v>-0.04736656584278993</v>
       </c>
       <c r="E11">
-        <v>0.03101762249845099</v>
+        <v>0.001899038936123334</v>
       </c>
       <c r="F11">
-        <v>-0.05318207242280278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01218891943115913</v>
+      </c>
+      <c r="G11">
+        <v>-0.02687251637970598</v>
+      </c>
+      <c r="H11">
+        <v>0.05063737005904258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04053630051720215</v>
+        <v>-0.02534523983499895</v>
       </c>
       <c r="C12">
-        <v>-0.02404648343294575</v>
+        <v>-0.009236432777273582</v>
       </c>
       <c r="D12">
-        <v>0.008580973162249112</v>
+        <v>-0.0462830922427087</v>
       </c>
       <c r="E12">
-        <v>0.03707149732561511</v>
+        <v>-0.008602336787503929</v>
       </c>
       <c r="F12">
-        <v>-0.02393743827190664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01503968731501632</v>
+      </c>
+      <c r="G12">
+        <v>-0.007634047801156701</v>
+      </c>
+      <c r="H12">
+        <v>0.02176510051515743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01728792929594836</v>
+        <v>-0.02657936311805809</v>
       </c>
       <c r="C13">
-        <v>-0.02302798293586102</v>
+        <v>0.01235312843969952</v>
       </c>
       <c r="D13">
-        <v>0.0009121598607017684</v>
+        <v>-0.02263652954026808</v>
       </c>
       <c r="E13">
-        <v>0.004846933187870432</v>
+        <v>0.01203648515533062</v>
       </c>
       <c r="F13">
-        <v>-0.09165898548317822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02249985896824154</v>
+      </c>
+      <c r="G13">
+        <v>-0.06167386782155339</v>
+      </c>
+      <c r="H13">
+        <v>0.07724292478476424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0177286476473543</v>
+        <v>-0.01747991794582229</v>
       </c>
       <c r="C14">
-        <v>-0.002075323472300248</v>
+        <v>-1.530275788965905e-05</v>
       </c>
       <c r="D14">
-        <v>0.004143995368334422</v>
+        <v>-0.01451481915034907</v>
       </c>
       <c r="E14">
-        <v>0.03335054375662987</v>
+        <v>-0.01432655615843615</v>
       </c>
       <c r="F14">
-        <v>-0.06407009130609108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01502411041829495</v>
+      </c>
+      <c r="G14">
+        <v>-0.04036860350070871</v>
+      </c>
+      <c r="H14">
+        <v>0.01488687937072565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03224479842348274</v>
+        <v>-0.02295189147698085</v>
       </c>
       <c r="C16">
-        <v>-0.02947491619347686</v>
+        <v>-0.01211277057859304</v>
       </c>
       <c r="D16">
-        <v>0.01435305675176574</v>
+        <v>-0.03882988000173154</v>
       </c>
       <c r="E16">
-        <v>0.03369926370225467</v>
+        <v>-0.001730215829633893</v>
       </c>
       <c r="F16">
-        <v>-0.05100206265023687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01577837883787351</v>
+      </c>
+      <c r="G16">
+        <v>-0.02211633883537723</v>
+      </c>
+      <c r="H16">
+        <v>0.03800479779827427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0338957168674783</v>
+        <v>-0.0270497718127619</v>
       </c>
       <c r="C19">
-        <v>-0.02459100989886938</v>
+        <v>-0.001377268637795354</v>
       </c>
       <c r="D19">
-        <v>0.0178168869049196</v>
+        <v>-0.04219637053208413</v>
       </c>
       <c r="E19">
-        <v>0.02828938160152673</v>
+        <v>-0.005879907202806679</v>
       </c>
       <c r="F19">
-        <v>-0.101926056338507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02588282021154955</v>
+      </c>
+      <c r="G19">
+        <v>-0.05595382974413662</v>
+      </c>
+      <c r="H19">
+        <v>0.0657429120902296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001830771499740686</v>
+        <v>-0.01006468721083639</v>
       </c>
       <c r="C20">
-        <v>0.002391343709804023</v>
+        <v>0.004128961667189474</v>
       </c>
       <c r="D20">
-        <v>0.005273226730029973</v>
+        <v>-0.02205841340017362</v>
       </c>
       <c r="E20">
-        <v>0.02821547359405689</v>
+        <v>-0.004026471686435459</v>
       </c>
       <c r="F20">
-        <v>-0.08521239740039417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01507666532258054</v>
+      </c>
+      <c r="G20">
+        <v>-0.05537902749505944</v>
+      </c>
+      <c r="H20">
+        <v>0.03071513080306578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.004321472385926438</v>
+        <v>-0.01451452566692265</v>
       </c>
       <c r="C21">
-        <v>0.01410323972345798</v>
+        <v>0.005565254838577808</v>
       </c>
       <c r="D21">
-        <v>0.0287585042527914</v>
+        <v>-0.02557213098248544</v>
       </c>
       <c r="E21">
-        <v>0.0360690002484968</v>
+        <v>-0.01987089552808649</v>
       </c>
       <c r="F21">
-        <v>-0.04475699502502035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.008384947101466542</v>
+      </c>
+      <c r="G21">
+        <v>-0.04737699767345873</v>
+      </c>
+      <c r="H21">
+        <v>0.04568024610401478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02964949885588433</v>
+        <v>-0.017925470134054</v>
       </c>
       <c r="C24">
-        <v>-0.0202100943845464</v>
+        <v>-0.006701629576777157</v>
       </c>
       <c r="D24">
-        <v>0.003774165585863653</v>
+        <v>-0.04228765175013788</v>
       </c>
       <c r="E24">
-        <v>0.01914768934391037</v>
+        <v>-8.625025110394922e-05</v>
       </c>
       <c r="F24">
-        <v>-0.0500395972486242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01085869767082854</v>
+      </c>
+      <c r="G24">
+        <v>-0.01655846624657055</v>
+      </c>
+      <c r="H24">
+        <v>0.04691706982452393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03160717913042747</v>
+        <v>-0.03010526287881192</v>
       </c>
       <c r="C25">
-        <v>-0.01879716389360491</v>
+        <v>-0.004718521188816265</v>
       </c>
       <c r="D25">
-        <v>0.01955681259953026</v>
+        <v>-0.0446648841443637</v>
       </c>
       <c r="E25">
-        <v>0.02893487519859777</v>
+        <v>-0.00570307944953993</v>
       </c>
       <c r="F25">
-        <v>-0.0528396926957482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01850567829026493</v>
+      </c>
+      <c r="G25">
+        <v>-0.02141203903874602</v>
+      </c>
+      <c r="H25">
+        <v>0.04378643227066033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01828492451511783</v>
+        <v>-0.01627212314899004</v>
       </c>
       <c r="C26">
-        <v>-0.01657420364454601</v>
+        <v>0.01820288022378393</v>
       </c>
       <c r="D26">
-        <v>0.02009732505438623</v>
+        <v>-0.009592283806729952</v>
       </c>
       <c r="E26">
-        <v>0.002981056484834824</v>
+        <v>-0.0001380743384336298</v>
       </c>
       <c r="F26">
-        <v>-0.06784446605788449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.003001511128710104</v>
+      </c>
+      <c r="G26">
+        <v>-0.02944714495327741</v>
+      </c>
+      <c r="H26">
+        <v>0.02495620941798839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.04958960906863485</v>
+        <v>-0.01977420799324268</v>
       </c>
       <c r="C27">
-        <v>-0.01284582422416723</v>
+        <v>-0.007763444117866725</v>
       </c>
       <c r="D27">
-        <v>-0.02497265489929577</v>
+        <v>-0.01298127132599698</v>
       </c>
       <c r="E27">
-        <v>0.0341930824825584</v>
+        <v>-0.004275654336512928</v>
       </c>
       <c r="F27">
-        <v>-0.04062897576218041</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.0126615680144061</v>
+      </c>
+      <c r="G27">
+        <v>-0.009333790659380963</v>
+      </c>
+      <c r="H27">
+        <v>-0.003526867217382167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0628419242785898</v>
+        <v>-0.1624399889633785</v>
       </c>
       <c r="C28">
-        <v>0.08872936611952575</v>
+        <v>0.01054605771788175</v>
       </c>
       <c r="D28">
-        <v>-0.1033456725681843</v>
+        <v>0.2114131976923212</v>
       </c>
       <c r="E28">
-        <v>-0.1593491970030061</v>
+        <v>-0.01176786780603583</v>
       </c>
       <c r="F28">
-        <v>-0.05273761741181714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03023011775239241</v>
+      </c>
+      <c r="G28">
+        <v>-0.01937079303260896</v>
+      </c>
+      <c r="H28">
+        <v>-0.008457976788194358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02292533234570588</v>
+        <v>-0.02244664473283538</v>
       </c>
       <c r="C29">
-        <v>-0.002083975933719157</v>
+        <v>-0.00174558125645789</v>
       </c>
       <c r="D29">
-        <v>0.003670185812947809</v>
+        <v>-0.01506516668180155</v>
       </c>
       <c r="E29">
-        <v>0.04044278869809156</v>
+        <v>-0.01456929286263242</v>
       </c>
       <c r="F29">
-        <v>-0.06285984644258046</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01676634016322283</v>
+      </c>
+      <c r="G29">
+        <v>-0.04025905970327265</v>
+      </c>
+      <c r="H29">
+        <v>0.005923852965630668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08269810938421331</v>
+        <v>-0.04857296654005628</v>
       </c>
       <c r="C30">
-        <v>-0.04755740188829935</v>
+        <v>-0.002566422271583622</v>
       </c>
       <c r="D30">
-        <v>0.004172487974091842</v>
+        <v>-0.09192486531021117</v>
       </c>
       <c r="E30">
-        <v>0.06832075846214559</v>
+        <v>0.03232741333617049</v>
       </c>
       <c r="F30">
-        <v>-0.1111503868293236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04945822938293816</v>
+      </c>
+      <c r="G30">
+        <v>-0.06059735532401891</v>
+      </c>
+      <c r="H30">
+        <v>0.07927983119707931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0598646995068897</v>
+        <v>-0.04902030224819898</v>
       </c>
       <c r="C31">
-        <v>-0.03259413051853614</v>
+        <v>-0.0116002205430577</v>
       </c>
       <c r="D31">
-        <v>0.006022068648417389</v>
+        <v>-0.02699236983538052</v>
       </c>
       <c r="E31">
-        <v>0.01791917268870733</v>
+        <v>0.004601549663510712</v>
       </c>
       <c r="F31">
-        <v>-0.05144898314851046</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.006350471949260511</v>
+      </c>
+      <c r="G31">
+        <v>-0.01914735121410463</v>
+      </c>
+      <c r="H31">
+        <v>0.004356208177927773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01874101635316311</v>
+        <v>-0.01247355018577194</v>
       </c>
       <c r="C32">
-        <v>-0.003856142874081296</v>
+        <v>-0.01416616764083033</v>
       </c>
       <c r="D32">
-        <v>0.02273338939316451</v>
+        <v>-0.01057243131760409</v>
       </c>
       <c r="E32">
-        <v>0.07405872679334102</v>
+        <v>-0.02938010342924058</v>
       </c>
       <c r="F32">
-        <v>-0.07934232199771586</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03936942933550956</v>
+      </c>
+      <c r="G32">
+        <v>-0.03050118867140774</v>
+      </c>
+      <c r="H32">
+        <v>0.05922609207762777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04685504815150801</v>
+        <v>-0.03092601450791482</v>
       </c>
       <c r="C33">
-        <v>-0.03360464545021676</v>
+        <v>-0.002255139421466967</v>
       </c>
       <c r="D33">
-        <v>0.03973894794830009</v>
+        <v>-0.04414999117654436</v>
       </c>
       <c r="E33">
-        <v>0.03071916972372118</v>
+        <v>0.01964238349031823</v>
       </c>
       <c r="F33">
-        <v>-0.08549351115502235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.001004129904072511</v>
+      </c>
+      <c r="G33">
+        <v>-0.04695443300802105</v>
+      </c>
+      <c r="H33">
+        <v>0.05201473570941519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03046452284107057</v>
+        <v>-0.0276776242513473</v>
       </c>
       <c r="C34">
-        <v>-0.02618692839310884</v>
+        <v>-0.02050851631626006</v>
       </c>
       <c r="D34">
-        <v>0.01419859765773513</v>
+        <v>-0.04126472575967154</v>
       </c>
       <c r="E34">
-        <v>0.03690110608379785</v>
+        <v>-0.01196092012230543</v>
       </c>
       <c r="F34">
-        <v>-0.05908117362261261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01830148242312549</v>
+      </c>
+      <c r="G34">
+        <v>-0.01404055903142284</v>
+      </c>
+      <c r="H34">
+        <v>0.0368481139036495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01524153370487934</v>
+        <v>-0.01728430502802313</v>
       </c>
       <c r="C36">
-        <v>0.002158555992050779</v>
+        <v>0.005882633725646113</v>
       </c>
       <c r="D36">
-        <v>0.007438434958813022</v>
+        <v>-0.005834754279485569</v>
       </c>
       <c r="E36">
-        <v>0.02550211683871437</v>
+        <v>-0.009343806389934015</v>
       </c>
       <c r="F36">
-        <v>-0.03937981375080103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002802230321396986</v>
+      </c>
+      <c r="G36">
+        <v>-0.02116345789904208</v>
+      </c>
+      <c r="H36">
+        <v>0.01789479165738013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.005050974579153486</v>
+        <v>-0.02533031520804338</v>
       </c>
       <c r="C38">
-        <v>-0.001637287720880698</v>
+        <v>-0.01633860579523448</v>
       </c>
       <c r="D38">
-        <v>0.01900346898560868</v>
+        <v>-0.01354808867390714</v>
       </c>
       <c r="E38">
-        <v>-0.02398517277517571</v>
+        <v>0.001136032618432829</v>
       </c>
       <c r="F38">
-        <v>-0.04521035530379774</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009034847206625318</v>
+      </c>
+      <c r="G38">
+        <v>-0.0230755794061514</v>
+      </c>
+      <c r="H38">
+        <v>0.04589335364752416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03287616281161501</v>
+        <v>-0.01517870837795186</v>
       </c>
       <c r="C39">
-        <v>-0.0356587068072298</v>
+        <v>-0.01054628164149689</v>
       </c>
       <c r="D39">
-        <v>0.0225871881522214</v>
+        <v>-0.08801779132816513</v>
       </c>
       <c r="E39">
-        <v>0.04314058697881197</v>
+        <v>0.007672837948537715</v>
       </c>
       <c r="F39">
-        <v>-0.06969141930568887</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01809921511914266</v>
+      </c>
+      <c r="G39">
+        <v>-0.03933913558955638</v>
+      </c>
+      <c r="H39">
+        <v>0.07921346811028537</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03520812932592472</v>
+        <v>-0.03078425244708682</v>
       </c>
       <c r="C40">
-        <v>-0.06571660146579031</v>
+        <v>-0.00263121494608765</v>
       </c>
       <c r="D40">
-        <v>-0.01175857701795349</v>
+        <v>-0.03263044376537828</v>
       </c>
       <c r="E40">
-        <v>0.01112533581040575</v>
+        <v>0.02543077452248716</v>
       </c>
       <c r="F40">
-        <v>-0.09610929259743724</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03618290218913903</v>
+      </c>
+      <c r="G40">
+        <v>-0.02188520713327778</v>
+      </c>
+      <c r="H40">
+        <v>0.07099735592839161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.002622751625335837</v>
+        <v>-0.01164651009386003</v>
       </c>
       <c r="C41">
-        <v>-9.295290907233747e-05</v>
+        <v>0.003277347967279672</v>
       </c>
       <c r="D41">
-        <v>0.009922630343005681</v>
+        <v>0.01328894991618366</v>
       </c>
       <c r="E41">
-        <v>0.002404278222959908</v>
+        <v>-0.001699646652989532</v>
       </c>
       <c r="F41">
-        <v>-0.0177892793434385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.002962973228424422</v>
+      </c>
+      <c r="G41">
+        <v>-0.001180392098513883</v>
+      </c>
+      <c r="H41">
+        <v>-0.003186032739607087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3322210987283724</v>
+        <v>-0.15445291428262</v>
       </c>
       <c r="C42">
-        <v>0.04369222023192378</v>
+        <v>0.06262804399788989</v>
       </c>
       <c r="D42">
-        <v>0.7201779578343958</v>
+        <v>-0.2383306304360819</v>
       </c>
       <c r="E42">
-        <v>-0.4462188292877819</v>
+        <v>0.2253889047585557</v>
       </c>
       <c r="F42">
-        <v>0.3138897301796557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8968328696560609</v>
+      </c>
+      <c r="G42">
+        <v>0.1978121309359262</v>
+      </c>
+      <c r="H42">
+        <v>0.000814436349045668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003466482829135785</v>
+        <v>-0.01424010536661451</v>
       </c>
       <c r="C43">
-        <v>-0.000375082204971537</v>
+        <v>0.003100020119227991</v>
       </c>
       <c r="D43">
-        <v>0.01479739189641122</v>
+        <v>0.009876594923132552</v>
       </c>
       <c r="E43">
-        <v>0.006582141851823094</v>
+        <v>0.001848427552237752</v>
       </c>
       <c r="F43">
-        <v>-0.03812966125643962</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.0037411254643148</v>
+      </c>
+      <c r="G43">
+        <v>-0.003989699770323003</v>
+      </c>
+      <c r="H43">
+        <v>0.009740949901999663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02142149583740452</v>
+        <v>-0.01814302539748115</v>
       </c>
       <c r="C44">
-        <v>0.001858385742102315</v>
+        <v>-0.006834973934206575</v>
       </c>
       <c r="D44">
-        <v>0.02044230881135875</v>
+        <v>-0.03759609554775625</v>
       </c>
       <c r="E44">
-        <v>0.01431188427556395</v>
+        <v>-0.007900133503168077</v>
       </c>
       <c r="F44">
-        <v>-0.1192741148562039</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.002183998006926652</v>
+      </c>
+      <c r="G44">
+        <v>-0.04383222954322818</v>
+      </c>
+      <c r="H44">
+        <v>0.07001251169159844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02151661382215042</v>
+        <v>-0.01428812966550402</v>
       </c>
       <c r="C46">
-        <v>-0.01593574984632211</v>
+        <v>0.004454609218745918</v>
       </c>
       <c r="D46">
-        <v>0.02318779603729352</v>
+        <v>-0.01473950883513892</v>
       </c>
       <c r="E46">
-        <v>0.04093880742818103</v>
+        <v>-0.0004405927814628119</v>
       </c>
       <c r="F46">
-        <v>-0.07772346525207831</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01220470995483142</v>
+      </c>
+      <c r="G46">
+        <v>-0.04392613701039526</v>
+      </c>
+      <c r="H46">
+        <v>0.009615358497820256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09391753362981486</v>
+        <v>-0.07199088181388291</v>
       </c>
       <c r="C47">
-        <v>-0.0309267620628912</v>
+        <v>-0.02899366942150651</v>
       </c>
       <c r="D47">
-        <v>-0.002160985214593365</v>
+        <v>-0.05193918882788019</v>
       </c>
       <c r="E47">
-        <v>0.03377157553748149</v>
+        <v>-0.003136757552455217</v>
       </c>
       <c r="F47">
-        <v>-0.04215414336798255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01486263800897598</v>
+      </c>
+      <c r="G47">
+        <v>0.007662008578486471</v>
+      </c>
+      <c r="H47">
+        <v>-0.02164523838784495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01976601577357066</v>
+        <v>-0.01983196468556348</v>
       </c>
       <c r="C48">
-        <v>-0.008494551117768125</v>
+        <v>-0.005782580649468245</v>
       </c>
       <c r="D48">
-        <v>0.01348211352090554</v>
+        <v>-0.01348580591633054</v>
       </c>
       <c r="E48">
-        <v>0.02399803738612647</v>
+        <v>-0.001323471487437087</v>
       </c>
       <c r="F48">
-        <v>-0.04183021341831026</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.007179576988237515</v>
+      </c>
+      <c r="G48">
+        <v>-0.02310942093726874</v>
+      </c>
+      <c r="H48">
+        <v>0.01941657788742615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08856782155364261</v>
+        <v>-0.0697276046987782</v>
       </c>
       <c r="C50">
-        <v>-0.02893796352707366</v>
+        <v>-0.02585674634895114</v>
       </c>
       <c r="D50">
-        <v>0.01906004385419735</v>
+        <v>-0.05039936924848714</v>
       </c>
       <c r="E50">
-        <v>0.03017898754964561</v>
+        <v>-0.01405801435184368</v>
       </c>
       <c r="F50">
-        <v>-0.03914501848846295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.004595849089070957</v>
+      </c>
+      <c r="G50">
+        <v>-0.005000915238227238</v>
+      </c>
+      <c r="H50">
+        <v>-0.007535747205388942</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01803788478679682</v>
+        <v>-0.01969525757763153</v>
       </c>
       <c r="C51">
-        <v>0.002126655113141464</v>
+        <v>0.000445549419912291</v>
       </c>
       <c r="D51">
-        <v>3.954262281500487e-05</v>
+        <v>-0.009275599908362582</v>
       </c>
       <c r="E51">
-        <v>-0.007564263895261752</v>
+        <v>-0.007043962174886173</v>
       </c>
       <c r="F51">
-        <v>-0.1014170640350743</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.00460485142731169</v>
+      </c>
+      <c r="G51">
+        <v>-0.0391950435780617</v>
+      </c>
+      <c r="H51">
+        <v>0.05355564019279064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09900705522816611</v>
+        <v>-0.08306537306801455</v>
       </c>
       <c r="C53">
-        <v>-0.03937624937376961</v>
+        <v>-0.03714863184858926</v>
       </c>
       <c r="D53">
-        <v>-0.0006079825525265082</v>
+        <v>-0.08856277495102491</v>
       </c>
       <c r="E53">
-        <v>0.04807601048160542</v>
+        <v>-0.005758298817270803</v>
       </c>
       <c r="F53">
-        <v>0.02664389213223228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02951616422341672</v>
+      </c>
+      <c r="G53">
+        <v>0.0375588270806068</v>
+      </c>
+      <c r="H53">
+        <v>-0.03594236263465506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01827997824360699</v>
+        <v>-0.02962877870330874</v>
       </c>
       <c r="C54">
-        <v>0.003794011797364469</v>
+        <v>-0.008133242375546017</v>
       </c>
       <c r="D54">
-        <v>0.001559140821112035</v>
+        <v>0.01182588296954471</v>
       </c>
       <c r="E54">
-        <v>0.03427697510822608</v>
+        <v>-0.006916646642944793</v>
       </c>
       <c r="F54">
-        <v>-0.05162893524073172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.00662878582709175</v>
+      </c>
+      <c r="G54">
+        <v>-0.03980843499401026</v>
+      </c>
+      <c r="H54">
+        <v>0.002079378520347664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1014332139927689</v>
+        <v>-0.07023075839825195</v>
       </c>
       <c r="C55">
-        <v>-0.01991133271095382</v>
+        <v>-0.03376345721572731</v>
       </c>
       <c r="D55">
-        <v>0.006208028147255257</v>
+        <v>-0.08288879443074386</v>
       </c>
       <c r="E55">
-        <v>0.0680355160260995</v>
+        <v>-0.0134455569164362</v>
       </c>
       <c r="F55">
-        <v>0.01806510460203123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02132796548473489</v>
+      </c>
+      <c r="G55">
+        <v>0.01430668392884124</v>
+      </c>
+      <c r="H55">
+        <v>-0.04518096380503871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.141699426209115</v>
+        <v>-0.1178612795056914</v>
       </c>
       <c r="C56">
-        <v>-0.05616400237263109</v>
+        <v>-0.05531949960256861</v>
       </c>
       <c r="D56">
-        <v>-0.04121336742571128</v>
+        <v>-0.1059515889902508</v>
       </c>
       <c r="E56">
-        <v>0.07060618983317628</v>
+        <v>-0.004899128387005092</v>
       </c>
       <c r="F56">
-        <v>0.06157681220027804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05290429091499888</v>
+      </c>
+      <c r="G56">
+        <v>0.07154122858080461</v>
+      </c>
+      <c r="H56">
+        <v>-0.06371281596763004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04980207425309195</v>
+        <v>-0.03564923186577031</v>
       </c>
       <c r="C57">
-        <v>-0.01851466357993227</v>
+        <v>0.01078250029289415</v>
       </c>
       <c r="D57">
-        <v>0.01338048886329644</v>
+        <v>-0.03407815527916261</v>
       </c>
       <c r="E57">
-        <v>-0.004537472519597076</v>
+        <v>0.01017535826426488</v>
       </c>
       <c r="F57">
-        <v>-0.05840654537222543</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.007783030293777068</v>
+      </c>
+      <c r="G57">
+        <v>-0.07172308368900572</v>
+      </c>
+      <c r="H57">
+        <v>0.05249224427775153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2192605544308412</v>
+        <v>-0.1365237663966976</v>
       </c>
       <c r="C58">
-        <v>-0.1162447114854582</v>
+        <v>-0.04930013403773487</v>
       </c>
       <c r="D58">
-        <v>0.1110772939195535</v>
+        <v>-0.1575308230803252</v>
       </c>
       <c r="E58">
-        <v>0.08609824818126012</v>
+        <v>0.2216874760861931</v>
       </c>
       <c r="F58">
-        <v>-0.3757186509591192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07098311344317482</v>
+      </c>
+      <c r="G58">
+        <v>-0.8145622881722446</v>
+      </c>
+      <c r="H58">
+        <v>-0.385682301152332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05452551995244592</v>
+        <v>-0.174339614825065</v>
       </c>
       <c r="C59">
-        <v>0.04359287558370452</v>
+        <v>0.001889768873457633</v>
       </c>
       <c r="D59">
-        <v>-0.1151510497986671</v>
+        <v>0.2101850354447182</v>
       </c>
       <c r="E59">
-        <v>-0.1464169029488182</v>
+        <v>0.005762527401592546</v>
       </c>
       <c r="F59">
-        <v>-0.07578023559679366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.001278389400415974</v>
+      </c>
+      <c r="G59">
+        <v>-0.01809248879249126</v>
+      </c>
+      <c r="H59">
+        <v>0.02903629593987216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1525921576850782</v>
+        <v>-0.1939842439055794</v>
       </c>
       <c r="C60">
-        <v>-0.08530057297684009</v>
+        <v>-0.02770355451545396</v>
       </c>
       <c r="D60">
-        <v>0.01409198252916119</v>
+        <v>-0.02639298753336088</v>
       </c>
       <c r="E60">
-        <v>-0.0964285486460411</v>
+        <v>0.05700462443810767</v>
       </c>
       <c r="F60">
-        <v>-0.1605275018632949</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05461445551385982</v>
+      </c>
+      <c r="G60">
+        <v>-0.01768044790676994</v>
+      </c>
+      <c r="H60">
+        <v>0.3666787080100511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02501800537625986</v>
+        <v>-0.02114401351132799</v>
       </c>
       <c r="C61">
-        <v>-0.02290345096444051</v>
+        <v>-0.01215853255389751</v>
       </c>
       <c r="D61">
-        <v>0.01702275779766825</v>
+        <v>-0.05560005813356498</v>
       </c>
       <c r="E61">
-        <v>0.0297121238852678</v>
+        <v>-0.002190378881715007</v>
       </c>
       <c r="F61">
-        <v>-0.03699436290473495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02141547921570952</v>
+      </c>
+      <c r="G61">
+        <v>-0.02507562574896767</v>
+      </c>
+      <c r="H61">
+        <v>0.06098451488018184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01069236120707269</v>
+        <v>-0.01122778612053849</v>
       </c>
       <c r="C63">
-        <v>-0.01751729309226054</v>
+        <v>0.0007069657141987876</v>
       </c>
       <c r="D63">
-        <v>0.01979273885758472</v>
+        <v>-0.0236758225861493</v>
       </c>
       <c r="E63">
-        <v>0.02653907961954052</v>
+        <v>-0.004931010607354134</v>
       </c>
       <c r="F63">
-        <v>-0.01585798936348111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01126439676440286</v>
+      </c>
+      <c r="G63">
+        <v>-0.01699272210771523</v>
+      </c>
+      <c r="H63">
+        <v>0.01337661728456438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04005886743220616</v>
+        <v>-0.03857122274575695</v>
       </c>
       <c r="C64">
-        <v>0.00602393582488402</v>
+        <v>-0.01123952589968371</v>
       </c>
       <c r="D64">
-        <v>0.005811556875593048</v>
+        <v>-0.04148278024481684</v>
       </c>
       <c r="E64">
-        <v>0.05625204179722547</v>
+        <v>-0.01222659463706876</v>
       </c>
       <c r="F64">
-        <v>-0.04462658046039158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003450561150670911</v>
+      </c>
+      <c r="G64">
+        <v>-0.006159980752249291</v>
+      </c>
+      <c r="H64">
+        <v>0.04325804727143186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0393643163187503</v>
+        <v>-0.03867488456781228</v>
       </c>
       <c r="C65">
-        <v>-0.01229567459038238</v>
+        <v>-0.004501774231578993</v>
       </c>
       <c r="D65">
-        <v>0.006422093972649357</v>
+        <v>-0.06996028345278997</v>
       </c>
       <c r="E65">
-        <v>0.02927402022287776</v>
+        <v>-0.005850155345306664</v>
       </c>
       <c r="F65">
-        <v>-0.008392772512131977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03840285873513918</v>
+      </c>
+      <c r="G65">
+        <v>0.007827284418543887</v>
+      </c>
+      <c r="H65">
+        <v>0.07657754352307396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03865243476143553</v>
+        <v>-0.02369341604351824</v>
       </c>
       <c r="C66">
-        <v>-0.05639381699581649</v>
+        <v>-0.01837595852102284</v>
       </c>
       <c r="D66">
-        <v>0.01916310670942456</v>
+        <v>-0.1095947170645467</v>
       </c>
       <c r="E66">
-        <v>0.0503217529271739</v>
+        <v>0.01055295920986941</v>
       </c>
       <c r="F66">
-        <v>-0.05875046287947833</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03915453990316926</v>
+      </c>
+      <c r="G66">
+        <v>-0.03615107887419372</v>
+      </c>
+      <c r="H66">
+        <v>0.08354456156099273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01462361906191395</v>
+        <v>-0.04552394550799591</v>
       </c>
       <c r="C67">
-        <v>-0.01064630095285269</v>
+        <v>-0.01826384578706806</v>
       </c>
       <c r="D67">
-        <v>0.008183103206121201</v>
+        <v>-0.01578734243908015</v>
       </c>
       <c r="E67">
-        <v>-0.0305073404990811</v>
+        <v>0.003867682772964454</v>
       </c>
       <c r="F67">
-        <v>-0.02787814944960248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01851887880261418</v>
+      </c>
+      <c r="G67">
+        <v>-0.01276829937361119</v>
+      </c>
+      <c r="H67">
+        <v>0.04507375120035642</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07198388565886966</v>
+        <v>-0.171144883398323</v>
       </c>
       <c r="C68">
-        <v>0.06658210220448756</v>
+        <v>0.02616286910224322</v>
       </c>
       <c r="D68">
-        <v>-0.128923686293536</v>
+        <v>0.2290675953505886</v>
       </c>
       <c r="E68">
-        <v>-0.1500527525552901</v>
+        <v>0.004302588030743082</v>
       </c>
       <c r="F68">
-        <v>-0.05362703515715888</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03931591160423106</v>
+      </c>
+      <c r="G68">
+        <v>-0.02800133931011156</v>
+      </c>
+      <c r="H68">
+        <v>-0.05006632584567335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06781500579353819</v>
+        <v>-0.0598286635987358</v>
       </c>
       <c r="C69">
-        <v>-0.04091127812137058</v>
+        <v>-0.02975976935986423</v>
       </c>
       <c r="D69">
-        <v>-0.01503948981320519</v>
+        <v>-0.04784832288402716</v>
       </c>
       <c r="E69">
-        <v>0.02679012091967731</v>
+        <v>-0.001852302011328239</v>
       </c>
       <c r="F69">
-        <v>-0.03280608002870739</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0292924304319834</v>
+      </c>
+      <c r="G69">
+        <v>0.01201227230241704</v>
+      </c>
+      <c r="H69">
+        <v>0.009354122269770261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07580642362131969</v>
+        <v>-0.1584132990613965</v>
       </c>
       <c r="C71">
-        <v>0.06728279618514793</v>
+        <v>0.01238125549184604</v>
       </c>
       <c r="D71">
-        <v>-0.111202803229012</v>
+        <v>0.1885622727692819</v>
       </c>
       <c r="E71">
-        <v>-0.2012501704793486</v>
+        <v>0.01118039804853685</v>
       </c>
       <c r="F71">
-        <v>-0.05409594908175973</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04697481430861346</v>
+      </c>
+      <c r="G71">
+        <v>-0.03172169421784856</v>
+      </c>
+      <c r="H71">
+        <v>-0.02264346260559577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1164835734935017</v>
+        <v>-0.07385317744113455</v>
       </c>
       <c r="C72">
-        <v>-0.06710891969449523</v>
+        <v>-0.04011196687803371</v>
       </c>
       <c r="D72">
-        <v>-0.02203929414155754</v>
+        <v>-0.0813353958964923</v>
       </c>
       <c r="E72">
-        <v>0.04787104300543594</v>
+        <v>0.01603892898037071</v>
       </c>
       <c r="F72">
-        <v>-0.0702321277668024</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06605313445170398</v>
+      </c>
+      <c r="G72">
+        <v>-0.01831633016967599</v>
+      </c>
+      <c r="H72">
+        <v>0.1340582325549192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2198122529573456</v>
+        <v>-0.2552281143472259</v>
       </c>
       <c r="C73">
-        <v>-0.1144375563626344</v>
+        <v>-0.04279471673175974</v>
       </c>
       <c r="D73">
-        <v>0.01397615642879687</v>
+        <v>-0.09654991669551342</v>
       </c>
       <c r="E73">
-        <v>-0.1884319860807812</v>
+        <v>0.0968981542494865</v>
       </c>
       <c r="F73">
-        <v>-0.1942692098086687</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.05957935641717018</v>
+      </c>
+      <c r="G73">
+        <v>-0.03449421247742741</v>
+      </c>
+      <c r="H73">
+        <v>0.4755752079301011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1345383574800502</v>
+        <v>-0.1134564982835684</v>
       </c>
       <c r="C74">
-        <v>-0.0373375518140087</v>
+        <v>-0.05461981211842096</v>
       </c>
       <c r="D74">
-        <v>-0.01278399732620548</v>
+        <v>-0.1115525066211738</v>
       </c>
       <c r="E74">
-        <v>0.05112156775871046</v>
+        <v>-0.008534817416450298</v>
       </c>
       <c r="F74">
-        <v>0.07215090709043083</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03827928899213214</v>
+      </c>
+      <c r="G74">
+        <v>0.05716758711768327</v>
+      </c>
+      <c r="H74">
+        <v>-0.02746455294157768</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2261219150492894</v>
+        <v>-0.2241114652505174</v>
       </c>
       <c r="C75">
-        <v>-0.09975452464156886</v>
+        <v>-0.1006170083307072</v>
       </c>
       <c r="D75">
-        <v>-0.08067848033184366</v>
+        <v>-0.1682651011496445</v>
       </c>
       <c r="E75">
-        <v>0.1037700283472437</v>
+        <v>0.008799394123896045</v>
       </c>
       <c r="F75">
-        <v>0.09640142174250139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09805903525982369</v>
+      </c>
+      <c r="G75">
+        <v>0.120156356882068</v>
+      </c>
+      <c r="H75">
+        <v>-0.1362486037252983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2796683241015637</v>
+        <v>-0.1857898814313182</v>
       </c>
       <c r="C76">
-        <v>-0.085977173426408</v>
+        <v>-0.09317010742176027</v>
       </c>
       <c r="D76">
-        <v>-0.1106713779123964</v>
+        <v>-0.1689832409881486</v>
       </c>
       <c r="E76">
-        <v>0.1575196541589351</v>
+        <v>-0.0391486593036993</v>
       </c>
       <c r="F76">
-        <v>0.1705417865307628</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.09093487826182184</v>
+      </c>
+      <c r="G76">
+        <v>0.1151863891395099</v>
+      </c>
+      <c r="H76">
+        <v>-0.1345007498555526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1247573027091201</v>
+        <v>-0.0681026337624957</v>
       </c>
       <c r="C77">
-        <v>-0.07114175791650294</v>
+        <v>-0.01500998084322807</v>
       </c>
       <c r="D77">
-        <v>0.09884065080837573</v>
+        <v>-0.08116206069929323</v>
       </c>
       <c r="E77">
-        <v>0.03508041402040003</v>
+        <v>0.0172979573540151</v>
       </c>
       <c r="F77">
-        <v>-0.1773189506125118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01422258647655149</v>
+      </c>
+      <c r="G77">
+        <v>-0.08067861565888702</v>
+      </c>
+      <c r="H77">
+        <v>0.01504454983737318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07709346003357845</v>
+        <v>-0.03708407450714408</v>
       </c>
       <c r="C78">
-        <v>-0.03574629952271747</v>
+        <v>-0.01557307641754968</v>
       </c>
       <c r="D78">
-        <v>0.05527357326649977</v>
+        <v>-0.06915201761555687</v>
       </c>
       <c r="E78">
-        <v>0.07603739766880878</v>
+        <v>-0.001442736042780084</v>
       </c>
       <c r="F78">
-        <v>-0.1068812385363033</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.02087491196977239</v>
+      </c>
+      <c r="G78">
+        <v>-0.0639311165500098</v>
+      </c>
+      <c r="H78">
+        <v>0.08851846144320182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2668388252826606</v>
+        <v>-0.1292344187221827</v>
       </c>
       <c r="C80">
-        <v>0.8782850267124084</v>
+        <v>-0.03605924665782973</v>
       </c>
       <c r="D80">
-        <v>0.09232068822242717</v>
+        <v>-0.09756027265060853</v>
       </c>
       <c r="E80">
-        <v>0.3208399288939537</v>
+        <v>-0.9288218571567783</v>
       </c>
       <c r="F80">
-        <v>-0.05684889068663004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2308938508929131</v>
+      </c>
+      <c r="G80">
+        <v>-0.1607981958480001</v>
+      </c>
+      <c r="H80">
+        <v>0.01120763546933116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1793724455052616</v>
+        <v>-0.1491127064181501</v>
       </c>
       <c r="C81">
-        <v>-0.06750863802989412</v>
+        <v>-0.06586288691150152</v>
       </c>
       <c r="D81">
-        <v>-0.08432986528305977</v>
+        <v>-0.1096384821257538</v>
       </c>
       <c r="E81">
-        <v>0.08937481320858393</v>
+        <v>-0.01228974175080563</v>
       </c>
       <c r="F81">
-        <v>0.1076060586852651</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06615215894447342</v>
+      </c>
+      <c r="G81">
+        <v>0.08172229221643358</v>
+      </c>
+      <c r="H81">
+        <v>-0.08771836669884288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03711760533998368</v>
+        <v>-0.03273821851068612</v>
       </c>
       <c r="C83">
-        <v>-0.02636136830794443</v>
+        <v>-0.006559552098993187</v>
       </c>
       <c r="D83">
-        <v>0.02018275445869633</v>
+        <v>-0.0244853918293125</v>
       </c>
       <c r="E83">
-        <v>0.001948290859385839</v>
+        <v>0.008953561047543567</v>
       </c>
       <c r="F83">
-        <v>-0.07352083237983678</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01016579107654885</v>
+      </c>
+      <c r="G83">
+        <v>-0.04672683979388272</v>
+      </c>
+      <c r="H83">
+        <v>0.04366559758246033</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.263646612905695</v>
+        <v>-0.2090914507210431</v>
       </c>
       <c r="C85">
-        <v>-0.07920360203680712</v>
+        <v>-0.0850606145462806</v>
       </c>
       <c r="D85">
-        <v>-0.08294403332524806</v>
+        <v>-0.1747852442088715</v>
       </c>
       <c r="E85">
-        <v>0.1204852536511133</v>
+        <v>0.001830676866666319</v>
       </c>
       <c r="F85">
-        <v>0.1170144801475931</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07928881383610345</v>
+      </c>
+      <c r="G85">
+        <v>0.1354515127436437</v>
+      </c>
+      <c r="H85">
+        <v>-0.09392562936317025</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01261697150868662</v>
+        <v>-0.02429393210141691</v>
       </c>
       <c r="C86">
-        <v>-0.008736047380279584</v>
+        <v>-0.004436400957432154</v>
       </c>
       <c r="D86">
-        <v>0.03800898006311049</v>
+        <v>-0.0370152872888363</v>
       </c>
       <c r="E86">
-        <v>0.03233605083080836</v>
+        <v>0.0001427550829028453</v>
       </c>
       <c r="F86">
-        <v>-0.08411325321155935</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.003720965840748453</v>
+      </c>
+      <c r="G86">
+        <v>-0.05507985785744593</v>
+      </c>
+      <c r="H86">
+        <v>0.09633071766034751</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04550247023730587</v>
+        <v>-0.02404340016951299</v>
       </c>
       <c r="C87">
-        <v>-0.0007027843513680767</v>
+        <v>-0.005398836152696711</v>
       </c>
       <c r="D87">
-        <v>0.02798057553093157</v>
+        <v>-0.04835715782550814</v>
       </c>
       <c r="E87">
-        <v>0.014772522053183</v>
+        <v>-0.003745370912942468</v>
       </c>
       <c r="F87">
-        <v>-0.1178414966628854</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.005407101855151333</v>
+      </c>
+      <c r="G87">
+        <v>-0.08024314026030495</v>
+      </c>
+      <c r="H87">
+        <v>0.08403585601008701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01483736322826763</v>
+        <v>-0.04306750767617465</v>
       </c>
       <c r="C88">
-        <v>0.007619051647867974</v>
+        <v>0.00943946274069349</v>
       </c>
       <c r="D88">
-        <v>-0.01673163951588148</v>
+        <v>-0.02073528198789727</v>
       </c>
       <c r="E88">
-        <v>0.01720820538029675</v>
+        <v>-0.0130114004324321</v>
       </c>
       <c r="F88">
-        <v>-0.002328062612548416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01849899788999694</v>
+      </c>
+      <c r="G88">
+        <v>-0.001128347037026058</v>
+      </c>
+      <c r="H88">
+        <v>0.02070405067800769</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1029213825756712</v>
+        <v>-0.2756099239538001</v>
       </c>
       <c r="C89">
-        <v>0.09245041960034889</v>
+        <v>0.024319516415603</v>
       </c>
       <c r="D89">
-        <v>-0.1924461555322431</v>
+        <v>0.3377949664212532</v>
       </c>
       <c r="E89">
-        <v>-0.2571072051111798</v>
+        <v>0.01207602488611423</v>
       </c>
       <c r="F89">
-        <v>-0.09668547173280499</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02588650679933336</v>
+      </c>
+      <c r="G89">
+        <v>0.001669156816288306</v>
+      </c>
+      <c r="H89">
+        <v>0.008086074325570503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09030339262909126</v>
+        <v>-0.2261245597529744</v>
       </c>
       <c r="C90">
-        <v>0.139946797243786</v>
+        <v>0.02272127374036769</v>
       </c>
       <c r="D90">
-        <v>-0.2035074665866662</v>
+        <v>0.3052958826079302</v>
       </c>
       <c r="E90">
-        <v>-0.2505320821703079</v>
+        <v>0.0009613453376027234</v>
       </c>
       <c r="F90">
-        <v>-0.0590481481720345</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05262470063929432</v>
+      </c>
+      <c r="G90">
+        <v>0.003628472779888532</v>
+      </c>
+      <c r="H90">
+        <v>-0.05032962743176167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.303083902089141</v>
+        <v>-0.2232590578738322</v>
       </c>
       <c r="C91">
-        <v>-0.1250995891600346</v>
+        <v>-0.0971714053210706</v>
       </c>
       <c r="D91">
-        <v>-0.08985220098089766</v>
+        <v>-0.1562555433644851</v>
       </c>
       <c r="E91">
-        <v>0.1095364159768245</v>
+        <v>0.008592637883509609</v>
       </c>
       <c r="F91">
-        <v>0.2334639628393677</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08306230640729566</v>
+      </c>
+      <c r="G91">
+        <v>0.141216416707888</v>
+      </c>
+      <c r="H91">
+        <v>-0.1715793971974413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1690493651827994</v>
+        <v>-0.2628603454890589</v>
       </c>
       <c r="C92">
-        <v>0.0939038965905838</v>
+        <v>-0.0455851044908851</v>
       </c>
       <c r="D92">
-        <v>-0.3810545415562946</v>
+        <v>0.2264039405383269</v>
       </c>
       <c r="E92">
-        <v>-0.2031397579466336</v>
+        <v>-0.0113441518282628</v>
       </c>
       <c r="F92">
-        <v>0.07201828773626158</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01606862188089194</v>
+      </c>
+      <c r="G92">
+        <v>-0.02282406718612455</v>
+      </c>
+      <c r="H92">
+        <v>-0.1121281561361627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09160691605469763</v>
+        <v>-0.2502735348966106</v>
       </c>
       <c r="C93">
-        <v>0.1203996699749117</v>
+        <v>0.01405864180504446</v>
       </c>
       <c r="D93">
-        <v>-0.2518867342792376</v>
+        <v>0.3151757443729416</v>
       </c>
       <c r="E93">
-        <v>-0.3652619821326313</v>
+        <v>0.0283177950158188</v>
       </c>
       <c r="F93">
-        <v>-0.01374331680979172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05347755897100183</v>
+      </c>
+      <c r="G93">
+        <v>0.00692582347359823</v>
+      </c>
+      <c r="H93">
+        <v>0.00980607476855503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2970396320785306</v>
+        <v>-0.2728351192622587</v>
       </c>
       <c r="C94">
-        <v>-0.1490864914952618</v>
+        <v>-0.09267637391705437</v>
       </c>
       <c r="D94">
-        <v>-0.1774061431165997</v>
+        <v>-0.1575276394448796</v>
       </c>
       <c r="E94">
-        <v>0.1483278368204274</v>
+        <v>0.02763728880468002</v>
       </c>
       <c r="F94">
-        <v>0.1737009557061681</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1830838111855806</v>
+      </c>
+      <c r="G94">
+        <v>0.2300163331180816</v>
+      </c>
+      <c r="H94">
+        <v>-0.2927820733662373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05174783572096819</v>
+        <v>-0.05162303405670243</v>
       </c>
       <c r="C95">
-        <v>-0.0417663219815905</v>
+        <v>-0.03522144587187601</v>
       </c>
       <c r="D95">
-        <v>0.05394418335072892</v>
+        <v>-0.08548690114340886</v>
       </c>
       <c r="E95">
-        <v>0.06354255696053446</v>
+        <v>0.08312724431943386</v>
       </c>
       <c r="F95">
-        <v>-0.06837545278295086</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.006448454386455875</v>
+      </c>
+      <c r="G95">
+        <v>-0.04862510220955982</v>
+      </c>
+      <c r="H95">
+        <v>0.05660209675684331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1587482236396907</v>
+        <v>-0.1812190634992771</v>
       </c>
       <c r="C98">
-        <v>-0.07129037872533793</v>
+        <v>-0.05612487730685369</v>
       </c>
       <c r="D98">
-        <v>0.01793959451827127</v>
+        <v>-0.04242600854565334</v>
       </c>
       <c r="E98">
-        <v>-0.1527464406555675</v>
+        <v>0.06189640131197592</v>
       </c>
       <c r="F98">
-        <v>-0.1124894191563445</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.009568587094348092</v>
+      </c>
+      <c r="G98">
+        <v>-0.07310312743455265</v>
+      </c>
+      <c r="H98">
+        <v>0.3375005052688332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01014287372952177</v>
+        <v>-0.01639511988578387</v>
       </c>
       <c r="C101">
-        <v>-0.01302717156397504</v>
+        <v>-0.0007231274083378773</v>
       </c>
       <c r="D101">
-        <v>0.02654556297188156</v>
+        <v>-0.01652144882731039</v>
       </c>
       <c r="E101">
-        <v>0.07702564114155092</v>
+        <v>-0.004347330659531108</v>
       </c>
       <c r="F101">
-        <v>-0.1736308380306254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01927951839835259</v>
+      </c>
+      <c r="G101">
+        <v>-0.1029819292432253</v>
+      </c>
+      <c r="H101">
+        <v>-0.01939671644368373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1158191245790434</v>
+        <v>-0.09830341674189874</v>
       </c>
       <c r="C102">
-        <v>-0.04363204209152424</v>
+        <v>-0.03375432428205972</v>
       </c>
       <c r="D102">
-        <v>-0.03338542578394955</v>
+        <v>-0.08656297406275959</v>
       </c>
       <c r="E102">
-        <v>0.06959578661795793</v>
+        <v>-0.004445560511584701</v>
       </c>
       <c r="F102">
-        <v>0.08213416541629789</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04608124286875034</v>
+      </c>
+      <c r="G102">
+        <v>0.07368379472408383</v>
+      </c>
+      <c r="H102">
+        <v>-0.06483843496486101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04313069190899363</v>
+        <v>-0.01465271451532671</v>
       </c>
       <c r="C103">
-        <v>-0.002949434262495947</v>
+        <v>-0.006270134265487399</v>
       </c>
       <c r="D103">
-        <v>-0.00865600246245647</v>
+        <v>-0.01536895055302473</v>
       </c>
       <c r="E103">
-        <v>0.05086247283663701</v>
+        <v>-0.01074447122005088</v>
       </c>
       <c r="F103">
-        <v>-0.006894353903594816</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.006945135484359732</v>
+      </c>
+      <c r="G103">
+        <v>-0.0009282209287699733</v>
+      </c>
+      <c r="H103">
+        <v>-0.01022614640635599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1777453213018818</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9561199894167935</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1583952230045727</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02902126860529336</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1298635756564523</v>
+      </c>
+      <c r="G104">
+        <v>0.0128943493580457</v>
+      </c>
+      <c r="H104">
+        <v>-0.04909769025251186</v>
       </c>
     </row>
   </sheetData>
